--- a/InputData/indst/FoISaGPbE/Fraction of Inputs Supplied and Goods Purchased by Entity.xlsx
+++ b/InputData/indst/FoISaGPbE/Fraction of Inputs Supplied and Goods Purchased by Entity.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr hidePivotFieldList="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\indst\FoISaGPbE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_F50E7DBD51BB9064FC8E5DC9970DFC1A6B1D844A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="1110" windowWidth="25815" windowHeight="11310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -16,10 +22,16 @@
     <sheet name="FoISaGPbE-FoGPbE" sheetId="7" r:id="rId7"/>
     <sheet name="FoISaGPbE-NIbSEaSoGO" sheetId="16" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -940,7 +952,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
@@ -1288,7 +1300,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1563,17 +1575,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1935,7 +1949,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" display="https://stats.oecd.org/"/>
+    <hyperlink ref="B8" r:id="rId1" display="https://stats.oecd.org/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1943,7 +1957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2863,10 +2877,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AX51"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -10052,15 +10066,15 @@
     <mergeCell ref="E6:AW6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;Coords=[VAR].[TTL]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="D51" r:id="rId2" display="https://stats-2.oecd.org/index.aspx?DatasetCode=IOTSI4_2018"/>
+    <hyperlink ref="E4" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;Coords=[VAR].[TTL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D51" r:id="rId2" display="https://stats-2.oecd.org/index.aspx?DatasetCode=IOTSI4_2018" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C1:AN13"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -11180,15 +11194,15 @@
     <mergeCell ref="E6:AN6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;Coords=[VAR].[VAL]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="D13" r:id="rId2" display="https://stats-2.oecd.org/index.aspx?DatasetCode=IOTSI4_2018"/>
+    <hyperlink ref="E4" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;Coords=[VAR].[VAL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D13" r:id="rId2" display="https://stats-2.oecd.org/index.aspx?DatasetCode=IOTSI4_2018" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C2:AY86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23413,15 +23427,15 @@
     <mergeCell ref="F5:AY5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;Coords=[VAR].[DOMIMP]&amp;ShowOnWeb=true&amp;Lang=en"/>
-    <hyperlink ref="D86" r:id="rId2" display="https://stats-2.oecd.org/index.aspx?DatasetCode=IOTSI4_2018"/>
+    <hyperlink ref="F3" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;Coords=[VAR].[DOMIMP]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="D86" r:id="rId2" display="https://stats-2.oecd.org/index.aspx?DatasetCode=IOTSI4_2018" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:EE240"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
@@ -32832,7 +32846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
@@ -33243,7 +33257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
@@ -33592,6 +33606,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -33825,32 +33857,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C4E81A-BD30-45AB-B8F6-F2B77D180D1C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25F13A94-7B8B-44F3-871A-201421CB0AF8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{594100F8-C0AA-43C2-B435-7F2D4910FED2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{594100F8-C0AA-43C2-B435-7F2D4910FED2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25F13A94-7B8B-44F3-871A-201421CB0AF8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C4E81A-BD30-45AB-B8F6-F2B77D180D1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>